--- a/StructureDefinition-profile-HealthcareService.xlsx
+++ b/StructureDefinition-profile-HealthcareService.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="338">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.708251-06:00</t>
+    <t>2026-02-09T22:05:43.1499576-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -413,33 +413,80 @@
     <t>HealthcareService.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension:contact</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-HealthcareService.contact|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for HealthcareService.contact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available relevant to the specific HealthcareService. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>Element `HealthcareService.contact` is will have a context of HealthcareService based on following the parent source element upwards and mapping to `HealthcareService`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension:offeredIn</t>
+  </si>
+  <si>
+    <t>offeredIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for HealthcareService.offeredIn from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `HealthcareService.offeredIn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `HealthcareService.offeredIn` is will have a context of HealthcareService based on following the parent source element upwards and mapping to `HealthcareService`.</t>
+  </si>
+  <si>
+    <t>HealthcareService.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>HealthcareService.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -447,6 +494,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -751,6 +801,9 @@
   </si>
   <si>
     <t>HealthcareService.eligibility.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1317,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AL53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1336,7 +1389,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="25.46484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.09375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2242,7 +2295,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2261,17 +2314,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2308,16 +2359,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>134</v>
@@ -2335,7 +2384,7 @@
         <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -2346,11 +2395,13 @@
         <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2363,26 +2414,24 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2430,7 +2479,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2439,13 +2488,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
@@ -2453,12 +2502,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2476,18 +2527,20 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2536,7 +2589,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2548,32 +2601,32 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2582,27 +2635,27 @@
         <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2646,33 +2699,33 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2683,7 +2736,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2695,17 +2748,15 @@
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>159</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
@@ -2754,13 +2805,13 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
@@ -2772,32 +2823,32 @@
         <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>85</v>
@@ -2818,7 +2869,9 @@
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="R14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2838,13 +2891,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -2862,13 +2915,13 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
@@ -2877,29 +2930,29 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -2911,15 +2964,17 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2944,13 +2999,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2968,13 +3023,13 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
@@ -2983,7 +3038,7 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -2991,14 +3046,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3017,15 +3072,17 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3050,13 +3107,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3074,7 +3131,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3089,22 +3146,22 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3123,13 +3180,13 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3156,13 +3213,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3180,7 +3237,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3195,18 +3252,18 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3217,7 +3274,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3229,13 +3286,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3262,13 +3319,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -3286,13 +3343,13 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
@@ -3301,7 +3358,7 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3309,10 +3366,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3323,7 +3380,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3335,17 +3392,15 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3394,13 +3449,13 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
@@ -3409,18 +3464,18 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3440,16 +3495,16 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3500,7 +3555,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3515,7 +3570,7 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3523,10 +3578,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3552,12 +3607,14 @@
         <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3606,7 +3663,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3621,7 +3678,7 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -3629,10 +3686,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3643,7 +3700,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3655,17 +3712,15 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3714,13 +3769,13 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
@@ -3729,7 +3784,7 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -3737,10 +3792,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3751,7 +3806,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3760,20 +3815,18 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -3822,13 +3875,13 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -3837,7 +3890,7 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -3845,10 +3898,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3871,16 +3924,16 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3906,31 +3959,31 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3945,7 +3998,7 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -3953,10 +4006,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3979,15 +4032,17 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4036,7 +4091,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4051,7 +4106,7 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4059,10 +4114,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4073,7 +4128,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4085,15 +4140,17 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4118,13 +4175,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4142,22 +4199,22 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4165,14 +4222,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4191,17 +4248,15 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4250,7 +4305,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4262,10 +4317,10 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4273,46 +4328,42 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4360,22 +4411,22 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4383,21 +4434,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4409,15 +4460,17 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4442,10 +4495,10 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>75</v>
@@ -4466,22 +4519,22 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4489,44 +4542,46 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4574,22 +4629,22 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4597,10 +4652,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4611,7 +4666,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -4623,17 +4678,15 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -4658,13 +4711,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -4682,13 +4735,13 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
@@ -4697,7 +4750,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4705,10 +4758,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4719,7 +4772,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -4731,16 +4784,16 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4766,37 +4819,37 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
@@ -4805,7 +4858,7 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4813,10 +4866,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4839,16 +4892,16 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4874,13 +4927,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -4898,7 +4951,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4913,7 +4966,7 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4921,10 +4974,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4947,15 +5000,17 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -4980,13 +5035,13 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5004,7 +5059,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5019,7 +5074,7 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5027,10 +5082,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5041,7 +5096,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5053,15 +5108,17 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5086,13 +5143,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5110,13 +5167,13 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
@@ -5125,7 +5182,7 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5133,10 +5190,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5159,17 +5216,15 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5194,13 +5249,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5218,7 +5273,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5233,7 +5288,7 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5241,10 +5296,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5267,13 +5322,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5324,7 +5379,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5336,10 +5391,10 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5347,14 +5402,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5373,16 +5428,16 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5432,7 +5487,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5444,10 +5499,10 @@
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5455,46 +5510,42 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -5542,22 +5593,22 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5565,14 +5616,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5591,15 +5642,17 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -5624,13 +5677,13 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -5648,7 +5701,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5660,10 +5713,10 @@
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5671,42 +5724,46 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
@@ -5754,22 +5811,22 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5777,10 +5834,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5791,7 +5848,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -5803,17 +5860,15 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>295</v>
+        <v>104</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -5838,13 +5893,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -5862,13 +5917,13 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
@@ -5877,7 +5932,7 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5885,10 +5940,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5911,17 +5966,15 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>295</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -5970,7 +6023,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -5985,7 +6038,7 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -5993,10 +6046,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6007,7 +6060,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6019,15 +6072,17 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6076,13 +6131,13 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
@@ -6091,7 +6146,7 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6099,10 +6154,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6125,15 +6180,17 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6182,7 +6239,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6194,10 +6251,10 @@
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6205,14 +6262,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6231,17 +6288,15 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6290,7 +6345,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6302,10 +6357,10 @@
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6313,46 +6368,42 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
@@ -6400,22 +6451,22 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6423,21 +6474,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6449,15 +6500,17 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -6506,22 +6559,22 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -6529,42 +6582,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6612,22 +6669,22 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -6635,10 +6692,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6646,7 +6703,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>84</v>
@@ -6661,13 +6718,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6718,10 +6775,10 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>84</v>
@@ -6733,7 +6790,7 @@
         <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -6741,10 +6798,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6755,7 +6812,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -6767,13 +6824,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6824,13 +6881,13 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
@@ -6839,9 +6896,221 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-HealthcareService.xlsx
+++ b/StructureDefinition-profile-HealthcareService.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="343">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1499576-06:00</t>
+    <t>2026-02-17T14:42:26.822633-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,7 +453,7 @@
     <t>The contact details of communication devices available relevant to the specific HealthcareService. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
   </si>
   <si>
-    <t>Element `HealthcareService.contact` is will have a context of HealthcareService based on following the parent source element upwards and mapping to `HealthcareService`.</t>
+    <t>Element `HealthcareService.contact` has a context of HealthcareService based on following the parent source element upwards and mapping to `HealthcareService`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -477,7 +477,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `HealthcareService.offeredIn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `HealthcareService.offeredIn` is will have a context of HealthcareService based on following the parent source element upwards and mapping to `HealthcareService`.</t>
+Element `HealthcareService.offeredIn` has a context of HealthcareService based on following the parent source element upwards and mapping to `HealthcareService`.</t>
   </si>
   <si>
     <t>HealthcareService.modifierExtension</t>
@@ -803,13 +803,23 @@
     <t>HealthcareService.eligibility.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.eligibility.extension:eligibility</t>
+  </si>
+  <si>
+    <t>eligibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-HealthcareService.eligibility|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for HealthcareService.eligibility from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `HealthcareService.eligibility` has is mapped to FHIR R4 element `HealthcareService.eligibility`, but has no comparisons.</t>
   </si>
   <si>
     <t>HealthcareService.eligibility.modifierExtension</t>
@@ -947,6 +957,12 @@
   </si>
   <si>
     <t>HealthcareService.availableTime.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>HealthcareService.availableTime.modifierExtension</t>
@@ -1370,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL53"/>
+  <dimension ref="A1:AL54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1389,7 +1405,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.09375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4441,7 +4457,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4463,14 +4479,12 @@
         <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4507,19 +4521,17 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4534,7 +4546,7 @@
         <v>135</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4542,14 +4554,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="D30" t="s" s="2">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4562,26 +4576,24 @@
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4629,7 +4641,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4638,13 +4650,13 @@
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4652,42 +4664,46 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4711,10 +4727,10 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>75</v>
@@ -4735,22 +4751,22 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4758,10 +4774,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4784,17 +4800,15 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -4819,10 +4833,10 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>75</v>
@@ -4843,7 +4857,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4858,7 +4872,7 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4866,10 +4880,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4880,7 +4894,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -4892,16 +4906,16 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4927,13 +4941,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -4951,13 +4965,13 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
@@ -4966,7 +4980,7 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4974,10 +4988,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5003,13 +5017,13 @@
         <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5038,10 +5052,10 @@
         <v>182</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5059,7 +5073,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5074,7 +5088,7 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5082,10 +5096,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5111,13 +5125,13 @@
         <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5143,13 +5157,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5167,7 +5181,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5182,7 +5196,7 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5190,10 +5204,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5219,12 +5233,14 @@
         <v>178</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5249,13 +5265,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>288</v>
+        <v>109</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>289</v>
+        <v>110</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5273,7 +5289,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5288,7 +5304,7 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5296,10 +5312,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5310,7 +5326,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5322,13 +5338,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5355,13 +5371,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5379,13 +5395,13 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
@@ -5394,7 +5410,7 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5416,7 +5432,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5428,7 +5444,7 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>294</v>
@@ -5436,9 +5452,7 @@
       <c r="M38" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -5493,7 +5507,7 @@
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
@@ -5502,7 +5516,7 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5510,10 +5524,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5524,7 +5538,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5536,15 +5550,17 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -5593,22 +5609,22 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5616,21 +5632,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5642,17 +5658,15 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -5701,19 +5715,19 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>250</v>
@@ -5724,14 +5738,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5744,26 +5758,24 @@
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="O41" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
@@ -5811,7 +5823,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5826,7 +5838,7 @@
         <v>135</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5834,14 +5846,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5854,22 +5866,26 @@
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -5893,13 +5909,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>304</v>
+        <v>75</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>305</v>
+        <v>75</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -5917,7 +5933,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -5929,10 +5945,10 @@
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>297</v>
+        <v>127</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5940,10 +5956,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5954,7 +5970,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -5966,13 +5982,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5999,13 +6015,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>75</v>
+        <v>309</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6023,13 +6039,13 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
@@ -6038,7 +6054,7 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6046,10 +6062,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6072,17 +6088,15 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N44" t="s" s="2">
         <v>314</v>
       </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6131,7 +6145,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6146,7 +6160,7 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6180,16 +6194,16 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6254,7 +6268,7 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6262,10 +6276,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6276,7 +6290,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6288,15 +6302,17 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6345,13 +6361,13 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
@@ -6360,7 +6376,7 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6368,10 +6384,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6382,7 +6398,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -6394,13 +6410,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6451,22 +6467,22 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6474,21 +6490,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6500,17 +6516,15 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -6559,19 +6573,19 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>250</v>
@@ -6582,14 +6596,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6602,26 +6616,24 @@
         <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="O49" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6669,7 +6681,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6684,7 +6696,7 @@
         <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -6692,42 +6704,46 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>260</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
@@ -6775,22 +6791,22 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -6798,10 +6814,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6809,7 +6825,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>84</v>
@@ -6824,13 +6840,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>328</v>
+        <v>206</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6881,10 +6897,10 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>84</v>
@@ -6896,7 +6912,7 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -6904,10 +6920,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6930,13 +6946,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6987,7 +7003,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7002,7 +7018,7 @@
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
@@ -7010,10 +7026,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7024,7 +7040,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7036,13 +7052,13 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>335</v>
+        <v>206</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7093,13 +7109,13 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
@@ -7108,9 +7124,115 @@
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-HealthcareService.xlsx
+++ b/StructureDefinition-profile-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.822633-06:00</t>
+    <t>2026-02-20T11:59:20.831909-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HealthcareService|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/HealthcareService</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-HealthcareService.contact|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-HealthcareService.contact}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>offeredIn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -812,7 +812,7 @@
     <t>eligibility</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-HealthcareService.eligibility|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-HealthcareService.eligibility}
 </t>
   </si>
   <si>
@@ -1405,7 +1405,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.88671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-HealthcareService.xlsx
+++ b/StructureDefinition-profile-HealthcareService.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="332">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.831909-06:00</t>
+    <t>2026-02-21T13:36:54.2451105-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HealthcareService</t>
+    <t>http://hl7.org/fhir/StructureDefinition/HealthcareService|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-HealthcareService.contact}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-HealthcareService.contact|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -460,26 +460,6 @@
 </t>
   </si>
   <si>
-    <t>HealthcareService.extension:offeredIn</t>
-  </si>
-  <si>
-    <t>offeredIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for HealthcareService.offeredIn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `HealthcareService.offeredIn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `HealthcareService.offeredIn` has a context of HealthcareService based on following the parent source element upwards and mapping to `HealthcareService`.</t>
-  </si>
-  <si>
     <t>HealthcareService.modifierExtension</t>
   </si>
   <si>
@@ -803,23 +783,13 @@
     <t>HealthcareService.eligibility.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.eligibility.extension:eligibility</t>
-  </si>
-  <si>
-    <t>eligibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-HealthcareService.eligibility}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for HealthcareService.eligibility from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `HealthcareService.eligibility` has is mapped to FHIR R4 element `HealthcareService.eligibility`, but has no comparisons.</t>
   </si>
   <si>
     <t>HealthcareService.eligibility.modifierExtension</t>
@@ -957,12 +927,6 @@
   </si>
   <si>
     <t>HealthcareService.availableTime.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>HealthcareService.availableTime.modifierExtension</t>
@@ -1386,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL54"/>
+  <dimension ref="A1:AL52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1405,7 +1369,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.09375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2521,13 +2485,11 @@
         <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2540,24 +2502,26 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2605,7 +2569,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2620,7 +2584,7 @@
         <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -2628,14 +2592,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2648,26 +2612,22 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2715,7 +2675,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2727,13 +2687,13 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
@@ -2752,13 +2712,13 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>85</v>
@@ -2772,12 +2732,16 @@
       <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="R13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2827,7 +2791,7 @@
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
@@ -2836,18 +2800,18 @@
         <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2864,30 +2828,28 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q14" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2931,7 +2893,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2946,10 +2908,10 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2961,14 +2923,14 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -2980,16 +2942,16 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3015,13 +2977,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3045,7 +3007,7 @@
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
@@ -3054,22 +3016,22 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3088,17 +3050,15 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3123,13 +3083,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3147,7 +3107,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3162,22 +3122,22 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3196,7 +3156,7 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>189</v>
@@ -3229,7 +3189,7 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="Y17" t="s" s="2">
         <v>191</v>
@@ -3253,7 +3213,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3268,7 +3228,7 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3276,10 +3236,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3302,7 +3262,7 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>195</v>
@@ -3335,13 +3295,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -3359,7 +3319,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3374,10 +3334,10 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>75</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
@@ -3396,7 +3356,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3471,7 +3431,7 @@
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
@@ -3483,15 +3443,15 @@
         <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3514,15 +3474,17 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3571,7 +3533,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3586,7 +3548,7 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3594,10 +3556,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3617,10 +3579,10 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>211</v>
@@ -3628,9 +3590,7 @@
       <c r="M21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3679,7 +3639,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3694,7 +3654,7 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -3702,10 +3662,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3725,16 +3685,16 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3785,7 +3745,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3800,7 +3760,7 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -3808,10 +3768,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3822,7 +3782,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3831,18 +3791,20 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -3891,13 +3853,13 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -3940,16 +3902,16 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4014,7 +3976,7 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4022,10 +3984,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4048,16 +4010,16 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4083,13 +4045,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4107,7 +4069,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4156,17 +4118,15 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>239</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4191,13 +4151,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4230,7 +4190,7 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4238,10 +4198,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4252,7 +4212,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4264,13 +4224,13 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4321,22 +4281,22 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4344,21 +4304,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4370,15 +4330,17 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4427,22 +4389,22 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4450,14 +4412,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4470,22 +4432,26 @@
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4521,17 +4487,19 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4546,7 +4514,7 @@
         <v>135</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4554,14 +4522,12 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C30" t="s" s="2">
         <v>254</v>
       </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4570,7 +4536,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4582,17 +4548,15 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -4617,10 +4581,10 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>75</v>
@@ -4641,22 +4605,22 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4671,39 +4635,37 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4751,22 +4713,22 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4788,7 +4750,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -4800,7 +4762,7 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>264</v>
@@ -4808,7 +4770,9 @@
       <c r="M32" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -4833,13 +4797,13 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -4863,7 +4827,7 @@
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
@@ -4872,7 +4836,7 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4880,10 +4844,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4894,7 +4858,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -4906,16 +4870,16 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4941,10 +4905,10 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>75</v>
@@ -4965,13 +4929,13 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
@@ -4980,7 +4944,7 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4988,10 +4952,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5014,16 +4978,16 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5049,13 +5013,13 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>276</v>
+        <v>109</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>277</v>
+        <v>110</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5073,7 +5037,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5088,7 +5052,7 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5122,7 +5086,7 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>280</v>
@@ -5130,9 +5094,7 @@
       <c r="M35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5157,13 +5119,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5196,7 +5158,7 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5218,7 +5180,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5230,7 +5192,7 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>285</v>
@@ -5238,9 +5200,7 @@
       <c r="M36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5265,13 +5225,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5295,7 +5255,7 @@
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>75</v>
@@ -5304,7 +5264,7 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5312,10 +5272,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5338,15 +5298,17 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5371,13 +5333,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5395,7 +5357,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5410,7 +5372,7 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5418,10 +5380,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5444,13 +5406,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5501,7 +5463,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5513,10 +5475,10 @@
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5524,14 +5486,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5550,16 +5512,16 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>299</v>
+        <v>147</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5609,7 +5571,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5621,10 +5583,10 @@
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5632,42 +5594,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5715,22 +5681,22 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5738,14 +5704,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5764,17 +5730,15 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -5799,13 +5763,13 @@
         <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>75</v>
@@ -5823,7 +5787,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5835,10 +5799,10 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5846,46 +5810,42 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -5933,22 +5893,22 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5956,10 +5916,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5970,7 +5930,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -5982,15 +5942,17 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6015,13 +5977,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6039,13 +6001,13 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
@@ -6054,7 +6016,7 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6062,10 +6024,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6088,15 +6050,17 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6145,7 +6109,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6160,7 +6124,7 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6168,10 +6132,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6182,7 +6146,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -6194,17 +6158,15 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6253,13 +6215,13 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
@@ -6268,7 +6230,7 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6276,10 +6238,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6302,17 +6264,15 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6361,7 +6321,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6373,10 +6333,10 @@
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6384,14 +6344,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6410,15 +6370,17 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -6467,7 +6429,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6479,10 +6441,10 @@
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6490,42 +6452,46 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>75</v>
       </c>
@@ -6573,22 +6539,22 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -6596,21 +6562,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6622,17 +6588,15 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -6681,22 +6645,22 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -6704,46 +6668,42 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
@@ -6791,22 +6751,22 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -6814,10 +6774,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6825,7 +6785,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>84</v>
@@ -6840,13 +6800,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6897,10 +6857,10 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>84</v>
@@ -6912,7 +6872,7 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -6920,10 +6880,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6934,7 +6894,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -6946,13 +6906,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7003,13 +6963,13 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
@@ -7018,221 +6978,9 @@
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL54" t="s" s="2">
         <v>75</v>
       </c>
     </row>
